--- a/doc/개발표준테이블.xlsx
+++ b/doc/개발표준테이블.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28125"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\topcinema\topcinema\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\topcinema\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AD97A6-D381-4738-AE7B-35B98C1D268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 컬럼명" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'테이블 컬럼명'!$A$1:$D$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'테이블 컬럼명'!$A$1:$F$188</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,13 +71,7 @@
     <t>수정</t>
   </si>
   <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>삭제</t>
-  </si>
-  <si>
-    <t>delete</t>
   </si>
   <si>
     <t>영화코드</t>
@@ -1079,9 +1084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>varchar(100)</t>
   </si>
   <si>
@@ -1133,12 +1135,6 @@
     <t>user_password</t>
   </si>
   <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
     <t>region_name</t>
   </si>
   <si>
@@ -1167,12 +1163,32 @@
   </si>
   <si>
     <t>menu_name</t>
+  </si>
+  <si>
+    <t>insert_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1245,7 +1261,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1522,2469 +1538,2469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" t="s">
         <v>262</v>
       </c>
-      <c r="B1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" t="s">
-        <v>264</v>
-      </c>
       <c r="E1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C3" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s">
-        <v>318</v>
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>318</v>
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>318</v>
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>318</v>
+        <v>100</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C31" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C32" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E32" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
+      <c r="E36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C43" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C47" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E38" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E39" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E42" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" t="s">
-        <v>318</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="E51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" t="s">
-        <v>318</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" t="s">
-        <v>318</v>
+        <v>91</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C57" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E57" t="s">
-        <v>318</v>
+        <v>256</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E58" t="s">
-        <v>318</v>
+        <v>256</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C59" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C60" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C61" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E62" t="s">
-        <v>318</v>
+        <v>256</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C65" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C67" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E67" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C68" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E68" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C69" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" t="s">
-        <v>318</v>
+        <v>93</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C71" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" t="s">
-        <v>318</v>
+        <v>94</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C73" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F73">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C74" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C75" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C76" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C77" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" t="s">
-        <v>318</v>
+        <v>93</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C79" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" t="s">
-        <v>318</v>
+        <v>94</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E80" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C81" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C82" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C83" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F83">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C84" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E84" t="s">
-        <v>318</v>
+        <v>277</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F84">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C85" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E85" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C86" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E86" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E87" t="s">
-        <v>318</v>
+        <v>93</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C89" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C90" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C91" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E88" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C89" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E89" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C90" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C91" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E91" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C92" s="1" t="s">
+      <c r="E93" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E94" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C95" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C96" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E92" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C93" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C94" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E94" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C95" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E95" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C96" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E97" t="s">
-        <v>321</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C99" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E99" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C100" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E100" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F100">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C101" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C102" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C103" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E101" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C102" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C104" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E102" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C103" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C105" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E103" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C104" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E104" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C105" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E105" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E105" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E106" t="s">
-        <v>318</v>
+        <v>93</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C107" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E107" t="s">
-        <v>318</v>
+        <v>94</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C108" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E108" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C109" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E109" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C110" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E110" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E111" t="s">
-        <v>318</v>
+        <v>93</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C112" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E112" t="s">
-        <v>318</v>
+        <v>78</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E113" t="s">
-        <v>318</v>
+        <v>101</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C114" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E114" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C115" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E115" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C116" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E116" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C116" s="1" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C117" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E116" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C117" s="1" t="s">
+      <c r="E117" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C118" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E118" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E119" t="s">
-        <v>318</v>
+        <v>103</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E120" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C121" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E121" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E122" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C123" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E120" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C121" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="D123" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E121" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C122" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="E124" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C125" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E122" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C123" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E123" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C124" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E124" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C125" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E125" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E126" t="s">
-        <v>318</v>
+        <v>103</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E127" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C128" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E128" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C129" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E129" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C130" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E128" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C129" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E129" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C130" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E130" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E131" t="s">
-        <v>318</v>
+        <v>301</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C132" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E132" t="s">
-        <v>318</v>
+        <v>93</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C133" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E133" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C134" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E134" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C136" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D136" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C137" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E135" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C136" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E136" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C137" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D137" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E137" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E138" t="s">
-        <v>318</v>
+        <v>112</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C139" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E139" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C140" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E139" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C140" s="1" t="s">
+      <c r="E141" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C142" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E143" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C144" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E140" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C141" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="E144" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C145" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E141" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C142" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E142" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C143" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E143" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C144" s="1" t="s">
+      <c r="E145" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C146" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E144" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C145" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="E146" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C147" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E145" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C146" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E146" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C147" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E147" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E147" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E148" t="s">
-        <v>318</v>
+        <v>112</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C149" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E149" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C150" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E150" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E151" t="s">
-        <v>318</v>
+        <v>77</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C152" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E152" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C153" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E153" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C154" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E154" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C153" s="1" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C155" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E153" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C154" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="E155" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C156" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E156" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C157" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E154" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C155" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E155" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C156" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E156" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C157" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E157" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E158" t="s">
-        <v>318</v>
+        <v>120</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C159" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E159" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C160" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E160" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C161" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E161" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C162" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C163" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E163" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E164" t="s">
-        <v>318</v>
+        <v>122</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C165" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E165" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C166" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C167" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E167" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C168" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E168" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C169" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E169" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C170" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E165" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C166" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E166" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C167" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E167" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C168" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E168" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C169" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="E170" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C171" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E169" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C170" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E170" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C171" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D171" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E172" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E173" t="s">
-        <v>318</v>
+        <v>126</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C174" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E174" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C175" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E175" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C176" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E174" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C175" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E175" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C176" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="D176" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C177" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E178" t="s">
-        <v>318</v>
+        <v>128</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C179" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E179" t="s">
+        <v>93</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C180" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E180" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E181" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C182" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E182" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C183" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E183" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E180" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C181" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E181" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C182" s="1" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C184" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E182" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C183" s="1" t="s">
+      <c r="D184" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E184" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C185" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E183" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C184" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E184" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C185" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D185" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E185" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C186" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E186" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C187" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E187" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E188" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D187"/>
+  <autoFilter ref="A1:F188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
